--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
@@ -416,7 +416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -479,34 +479,34 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.402700126753599</v>
+        <v>-0.402700126753615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0755978946989747</v>
+        <v>0.0755978946989745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.668512538294034</v>
+        <v>0.668512538294023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.576446929224203</v>
+        <v>0.576446929224194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.775282148623454</v>
+        <v>0.775282148623441</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.32686959547117</v>
+        <v>-5.3268695954714</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0000000999198460190269</v>
+        <v>0.000000099919846018902</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0886712409015716</v>
+        <v>0.0886712409015702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.115511831616094</v>
+        <v>0.115511831616092</v>
       </c>
       <c r="M2" t="n">
-        <v>0.154119179806553</v>
+        <v>0.154119179806551</v>
       </c>
       <c r="N2" t="n">
         <v>2423</v>
@@ -529,34 +529,34 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.310382485087614</v>
+        <v>-0.310382485087624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0872834271835415</v>
+        <v>0.0872834271835431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.733166477343892</v>
+        <v>0.733166477343884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.617881861532348</v>
+        <v>0.61788186153234</v>
       </c>
       <c r="H3" t="n">
-        <v>0.869960937464272</v>
+        <v>0.869960937464266</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.55602999450211</v>
+        <v>-3.55602999450216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000376501112154992</v>
+        <v>0.000376501112154923</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0400267467698517</v>
+        <v>0.0400267467698516</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0400428617637527</v>
+        <v>0.0400428617637526</v>
       </c>
       <c r="M3" t="n">
-        <v>0.062590493091125</v>
+        <v>0.0625904930911248</v>
       </c>
       <c r="N3" t="n">
         <v>2423</v>
@@ -579,28 +579,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.447617710151939</v>
+        <v>0.447617710151933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0863771342757367</v>
+        <v>0.0863771342757451</v>
       </c>
       <c r="F4" t="n">
-        <v>1.56458045808513</v>
+        <v>1.56458045808512</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3209068746734</v>
+        <v>1.32090687467337</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85320559439676</v>
+        <v>1.85320559439678</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1821319832519</v>
+        <v>5.18213198325133</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00000021936389493592</v>
+        <v>0.000000219363894936598</v>
       </c>
       <c r="K4" t="n">
-        <v>0.104428378294504</v>
+        <v>0.104428378294503</v>
       </c>
       <c r="L4" t="n">
         <v>0.115697620228417</v>
@@ -629,34 +629,34 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.180008447257678</v>
+        <v>0.180008447257685</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0757156616060921</v>
+        <v>0.0757156616060979</v>
       </c>
       <c r="F5" t="n">
-        <v>1.19722747636809</v>
+        <v>1.1972274763681</v>
       </c>
       <c r="G5" t="n">
         <v>1.03211051603789</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38875983520943</v>
+        <v>1.38875983520945</v>
       </c>
       <c r="I5" t="n">
-        <v>2.37742685514875</v>
+        <v>2.37742685514866</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0174339002645215</v>
+        <v>0.0174339002645259</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0747945948307642</v>
+        <v>0.0747945948307632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0952112482043501</v>
+        <v>0.0952112482043489</v>
       </c>
       <c r="M5" t="n">
-        <v>0.129090352938218</v>
+        <v>0.129090352938217</v>
       </c>
       <c r="N5" t="n">
         <v>2423</v>
@@ -679,34 +679,34 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230422960057606</v>
+        <v>0.230422960057714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0725459289370883</v>
+        <v>0.0725459289370885</v>
       </c>
       <c r="F6" t="n">
-        <v>1.25913246005681</v>
+        <v>1.25913246005695</v>
       </c>
       <c r="G6" t="n">
-        <v>1.09224251864997</v>
+        <v>1.09224251865009</v>
       </c>
       <c r="H6" t="n">
-        <v>1.45152246401131</v>
+        <v>1.45152246401146</v>
       </c>
       <c r="I6" t="n">
-        <v>3.17623557150158</v>
+        <v>3.17623557150307</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00149199740419489</v>
+        <v>0.00149199740418723</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0474280591168172</v>
+        <v>0.047428059116816</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0636034327170656</v>
+        <v>0.0636034327170639</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0848242819778465</v>
+        <v>0.0848242819778443</v>
       </c>
       <c r="N6" t="n">
         <v>2423</v>
@@ -729,34 +729,34 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.284484378919986</v>
+        <v>-0.284484378920029</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0782136516548936</v>
+        <v>0.0782136516548939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.752402108705736</v>
+        <v>0.752402108705704</v>
       </c>
       <c r="G7" t="n">
-        <v>0.645465745858215</v>
+        <v>0.645465745858188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.87705495886871</v>
+        <v>0.877054958868674</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.63727268706532</v>
+        <v>-3.63727268706585</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000275540177859084</v>
+        <v>0.000275540177858518</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0437146517314088</v>
+        <v>0.0437146517314089</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0524179854960374</v>
+        <v>0.0524179854960376</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07401646798448</v>
+        <v>0.0740164679844803</v>
       </c>
       <c r="N7" t="n">
         <v>2423</v>
@@ -779,34 +779,34 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0970282006990513</v>
+        <v>-0.0970282006990474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0976444233578251</v>
+        <v>0.0976444233578335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.907530412780348</v>
+        <v>0.907530412780352</v>
       </c>
       <c r="G8" t="n">
-        <v>0.749453300828748</v>
+        <v>0.749453300828739</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09894965998618</v>
+        <v>1.0989496599862</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.993689115695675</v>
+        <v>-0.99368911569555</v>
       </c>
       <c r="J8" t="n">
-        <v>0.32037424332494</v>
+        <v>0.320374243325001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0400700007246376</v>
+        <v>0.0400700007246397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0528973844088859</v>
+        <v>0.0528973844088888</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0712524840168241</v>
+        <v>0.071252484016828</v>
       </c>
       <c r="N8" t="n">
         <v>2423</v>
@@ -829,34 +829,34 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.495808214626776</v>
+        <v>-0.49580821462662</v>
       </c>
       <c r="E9" t="n">
-        <v>0.130055373613841</v>
+        <v>0.130055373613859</v>
       </c>
       <c r="F9" t="n">
-        <v>0.609078442208526</v>
+        <v>0.609078442208621</v>
       </c>
       <c r="G9" t="n">
-        <v>0.472028106778534</v>
+        <v>0.47202810677859</v>
       </c>
       <c r="H9" t="n">
-        <v>0.785920464132911</v>
+        <v>0.785920464133063</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.81228549693706</v>
+        <v>-3.81228549693532</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000137687705678367</v>
+        <v>0.000137687705679341</v>
       </c>
       <c r="K9" t="n">
-        <v>0.109549716422622</v>
+        <v>0.109549716422624</v>
       </c>
       <c r="L9" t="n">
-        <v>0.103179027373443</v>
+        <v>0.103179027373445</v>
       </c>
       <c r="M9" t="n">
-        <v>0.163794705171185</v>
+        <v>0.163794705171187</v>
       </c>
       <c r="N9" t="n">
         <v>2423</v>
@@ -879,34 +879,34 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0.68995908065362</v>
+        <v>0.689959080653582</v>
       </c>
       <c r="E10" t="n">
-        <v>0.132947782910698</v>
+        <v>0.132947782910693</v>
       </c>
       <c r="F10" t="n">
-        <v>1.9936339533757</v>
+        <v>1.99363395337563</v>
       </c>
       <c r="G10" t="n">
-        <v>1.53630691028399</v>
+        <v>1.53630691028395</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58709787311815</v>
+        <v>2.58709787311803</v>
       </c>
       <c r="I10" t="n">
-        <v>5.18969978699887</v>
+        <v>5.18969978699875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000000210633399574098</v>
+        <v>0.000000210633399574239</v>
       </c>
       <c r="K10" t="n">
         <v>0.113222332485359</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1056473410971</v>
+        <v>0.105647341097101</v>
       </c>
       <c r="M10" t="n">
-        <v>0.168498447599696</v>
+        <v>0.168498447599697</v>
       </c>
       <c r="N10" t="n">
         <v>2423</v>
@@ -929,25 +929,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0852576192289924</v>
+        <v>0.085257619229009</v>
       </c>
       <c r="E11" t="n">
-        <v>0.112450283983269</v>
+        <v>0.112450283983272</v>
       </c>
       <c r="F11" t="n">
-        <v>1.08899757728062</v>
+        <v>1.08899757728064</v>
       </c>
       <c r="G11" t="n">
-        <v>0.873589286771054</v>
+        <v>0.873589286771063</v>
       </c>
       <c r="H11" t="n">
-        <v>1.35752090974744</v>
+        <v>1.35752090974747</v>
       </c>
       <c r="I11" t="n">
-        <v>0.758180559523332</v>
+        <v>0.758180559523461</v>
       </c>
       <c r="J11" t="n">
-        <v>0.44834289765212</v>
+        <v>0.448342897652043</v>
       </c>
       <c r="K11" t="n">
         <v>0.0468124930611945</v>
@@ -979,10 +979,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.380998731542719</v>
+        <v>0.380998731542717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.101645030063099</v>
+        <v>0.1016450300631</v>
       </c>
       <c r="F12" t="n">
         <v>1.4637457487096</v>
@@ -994,10 +994,10 @@
         <v>1.7864367447012</v>
       </c>
       <c r="I12" t="n">
-        <v>3.74832622220882</v>
+        <v>3.74832622220877</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000178018615535515</v>
+        <v>0.000178018615535552</v>
       </c>
       <c r="K12" t="n">
         <v>0.0711707471710024</v>
@@ -1029,34 +1029,34 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.461087039964347</v>
+        <v>-0.461087039964328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.112614657141601</v>
+        <v>0.112614657141594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.630597787800327</v>
+        <v>0.630597787800339</v>
       </c>
       <c r="G13" t="n">
-        <v>0.505699950913885</v>
+        <v>0.505699950913901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.786342908003133</v>
+        <v>0.786342908003138</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.09437857973122</v>
+        <v>-4.0943785797313</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0000423302172621111</v>
+        <v>0.0000423302172620975</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0802754986312153</v>
+        <v>0.0802754986312166</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0919278815528791</v>
+        <v>0.0919278815528806</v>
       </c>
       <c r="M13" t="n">
-        <v>0.131478802175368</v>
+        <v>0.13147880217537</v>
       </c>
       <c r="N13" t="n">
         <v>2423</v>
